--- a/SolarSystem.xlsx
+++ b/SolarSystem.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.LAPTOP-NGV8DR3D.000\PycharmProjects\SolarSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D690FD-970D-4A40-B246-4C8506A78D57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B33F44-BD13-4571-A7FD-95390786DBAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2595" windowWidth="14310" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13485" yWindow="1770" windowWidth="14310" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhuS5vpz4n1ZxcsoDfsHcnBoXZA5w=="/>
     </ext>
@@ -128,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -145,6 +154,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,7 +471,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/SolarSystem.xlsx
+++ b/SolarSystem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.LAPTOP-NGV8DR3D.000\PycharmProjects\SolarSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B33F44-BD13-4571-A7FD-95390786DBAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EDAFEC-3583-42F5-B050-1706BABA987D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13485" yWindow="1770" windowWidth="14310" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14175" yWindow="2460" windowWidth="14310" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhuS5vpz4n1ZxcsoDfsHcnBoXZA5w=="/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -62,12 +59,39 @@
   <si>
     <t>Mars</t>
   </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>Jupiter</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>Uranus</t>
+  </si>
+  <si>
+    <t>Neptune</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,12 +130,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +158,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -134,34 +174,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{812D3B9B-BFDD-43D7-802C-1DB347B68385}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,7 +443,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -406,83 +472,245 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>-6.7328445223610901E-3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>5.9340371201359503E-3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>-6.76272219615915E-6</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>-5.8800722925893898E-6</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>1.98855E+30</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>-0.38670210582622799</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.91311352484546904</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>-1.6162912118771699E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>-6.7195688460435802E-3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>5.9721900000000004E+24</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>0.46394009233829098</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1.4563652886162499</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>-1.2787453431283201E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>5.5022241915876702E-3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>6.4171000000000003E+23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.35345929529880998</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-6.7433078073510899E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.5720418842676701E-4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.8822474538692099E-2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3.3019999999999999E+23</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-0.242526205246236</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-0.68038392301150996</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.8984615109336599E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-6.6644414131406798E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.8684999999999998E+24</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3.1058908140815502</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-4.02319195160044</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5.8802566964266702E-3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4.9694027617128902E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.8979999999999999E+27</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5.5357849523017704</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-4.02319195160044</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4.33070025989117E-3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.0817304574523399E-3</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5.6834000000000003E+26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
+        <v>15.3132305748719</v>
+      </c>
+      <c r="C9" s="6">
+        <v>12.502000377980799</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-2.5162674617435501E-3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.8634470231413199E-3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>8.6813E+25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
+        <v>29.460181363848299</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-5.1885028520324799</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5.2337229880449398E-4</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3.1103648116152802E-3</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1.0200000000000001E+26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="13">
+        <v>-0.38584888226488301</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.91077097668523499</v>
+      </c>
+      <c r="D11" s="13">
+        <v>-1.55838028534584E-2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>-6.5316546799994799E-3</v>
+      </c>
+      <c r="F11" s="12">
+        <v>7.3489999999999999E+22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3.1101838045418102</v>
+      </c>
+      <c r="C12" s="13">
+        <v>-4.0243682033655803</v>
+      </c>
+      <c r="D12" s="13">
+        <v>8.0317821712596708E-3</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1.26638752141574E-2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4.7970000000000004E+22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="13">
+        <v>5.5386632204194504</v>
+      </c>
+      <c r="C13" s="13">
+        <v>-8.2926718686700003</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1.3557121477201499E-3</v>
+      </c>
+      <c r="E13" s="13">
+        <v>4.2983770731570801E-3</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1.34553E+23</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
